--- a/data/pca/factorExposure/factorExposure_2015-01-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0133417900136737</v>
+        <v>0.01011731897888438</v>
       </c>
       <c r="C2">
-        <v>0.03582171980870812</v>
+        <v>-0.0524621585881616</v>
       </c>
       <c r="D2">
-        <v>0.1286866098637502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.07362925750225313</v>
+      </c>
+      <c r="E2">
+        <v>-0.1000641147625277</v>
+      </c>
+      <c r="F2">
+        <v>-0.1435748169003897</v>
+      </c>
+      <c r="G2">
+        <v>0.06165624593142162</v>
+      </c>
+      <c r="H2">
+        <v>-0.07278283598748864</v>
+      </c>
+      <c r="I2">
+        <v>0.02316788945993349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03883018093129291</v>
+        <v>0.01836019416498725</v>
       </c>
       <c r="C4">
-        <v>0.1208126032109193</v>
+        <v>-0.1429945259113487</v>
       </c>
       <c r="D4">
-        <v>0.08511069313297492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.03688984810782157</v>
+      </c>
+      <c r="E4">
+        <v>-0.07366911021545434</v>
+      </c>
+      <c r="F4">
+        <v>-0.1054312612092582</v>
+      </c>
+      <c r="G4">
+        <v>-0.05832181363141303</v>
+      </c>
+      <c r="H4">
+        <v>0.01434730530974508</v>
+      </c>
+      <c r="I4">
+        <v>0.07247681452288376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.01950279945959819</v>
+        <v>0.02905151937158955</v>
       </c>
       <c r="C6">
-        <v>0.04613280478592785</v>
+        <v>-0.05558199144696024</v>
       </c>
       <c r="D6">
-        <v>0.07946169014332713</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.04618819419259857</v>
+      </c>
+      <c r="E6">
+        <v>-0.08871257739504131</v>
+      </c>
+      <c r="F6">
+        <v>-0.05860190065579143</v>
+      </c>
+      <c r="G6">
+        <v>0.03902329299212415</v>
+      </c>
+      <c r="H6">
+        <v>0.04154491311473223</v>
+      </c>
+      <c r="I6">
+        <v>0.02186601812790861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.01062106422186791</v>
+        <v>0.004274799304892902</v>
       </c>
       <c r="C7">
-        <v>0.04200630137517093</v>
+        <v>-0.05626851839798044</v>
       </c>
       <c r="D7">
-        <v>0.06634229394011135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04158525807883529</v>
+      </c>
+      <c r="E7">
+        <v>-0.06991577655374881</v>
+      </c>
+      <c r="F7">
+        <v>-0.01087729139351052</v>
+      </c>
+      <c r="G7">
+        <v>-0.0134177747198449</v>
+      </c>
+      <c r="H7">
+        <v>0.04069407411393263</v>
+      </c>
+      <c r="I7">
+        <v>0.08537164443398826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.003637105403181036</v>
+        <v>-0.00730739341095731</v>
       </c>
       <c r="C8">
-        <v>0.04657038369400824</v>
+        <v>-0.05560052362726957</v>
       </c>
       <c r="D8">
-        <v>0.07261142502398586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02194160690693549</v>
+      </c>
+      <c r="E8">
+        <v>-0.06422594652770179</v>
+      </c>
+      <c r="F8">
+        <v>-0.08494414820672601</v>
+      </c>
+      <c r="G8">
+        <v>-0.02992196222028908</v>
+      </c>
+      <c r="H8">
+        <v>-0.05164516741502279</v>
+      </c>
+      <c r="I8">
+        <v>0.02035973231138532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02303185276667586</v>
+        <v>0.0105042033788854</v>
       </c>
       <c r="C9">
-        <v>0.09827502739240004</v>
+        <v>-0.1130986221709042</v>
       </c>
       <c r="D9">
-        <v>0.07952743026678645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03477554031783484</v>
+      </c>
+      <c r="E9">
+        <v>-0.06349373249163875</v>
+      </c>
+      <c r="F9">
+        <v>-0.07244067537031339</v>
+      </c>
+      <c r="G9">
+        <v>-0.005369919292787744</v>
+      </c>
+      <c r="H9">
+        <v>0.03317475126324702</v>
+      </c>
+      <c r="I9">
+        <v>0.07781110686087274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.2174954049985035</v>
+        <v>0.2405942131294249</v>
       </c>
       <c r="C10">
-        <v>-0.1126333899883936</v>
+        <v>0.08298319452967935</v>
       </c>
       <c r="D10">
-        <v>-0.04384768181247825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01662811483302777</v>
+      </c>
+      <c r="E10">
+        <v>0.02017221060444509</v>
+      </c>
+      <c r="F10">
+        <v>-0.01311804177534484</v>
+      </c>
+      <c r="G10">
+        <v>-0.001421101751233454</v>
+      </c>
+      <c r="H10">
+        <v>0.02938113055029516</v>
+      </c>
+      <c r="I10">
+        <v>0.05176440661406005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.009136143016066493</v>
+        <v>0.01125566625498436</v>
       </c>
       <c r="C11">
-        <v>0.04653028982855005</v>
+        <v>-0.06684098674701919</v>
       </c>
       <c r="D11">
-        <v>0.04774733321949365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02024565718377867</v>
+      </c>
+      <c r="E11">
+        <v>-0.05313661752497795</v>
+      </c>
+      <c r="F11">
+        <v>-0.006399479964129637</v>
+      </c>
+      <c r="G11">
+        <v>-0.01190815775241566</v>
+      </c>
+      <c r="H11">
+        <v>0.03155694045688157</v>
+      </c>
+      <c r="I11">
+        <v>0.04033084454964719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01104294997725505</v>
+        <v>0.01223445309764678</v>
       </c>
       <c r="C12">
-        <v>0.05144016739997463</v>
+        <v>-0.05882344907803237</v>
       </c>
       <c r="D12">
-        <v>0.05246083997746077</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02588388872281914</v>
+      </c>
+      <c r="E12">
+        <v>-0.04061347067616188</v>
+      </c>
+      <c r="F12">
+        <v>0.005459392484941493</v>
+      </c>
+      <c r="G12">
+        <v>0.01576460221785654</v>
+      </c>
+      <c r="H12">
+        <v>0.02530028674556633</v>
+      </c>
+      <c r="I12">
+        <v>0.04858614556738059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01778161361469464</v>
+        <v>0.003436571421834892</v>
       </c>
       <c r="C13">
-        <v>0.05876819888532928</v>
+        <v>-0.08881271005514903</v>
       </c>
       <c r="D13">
-        <v>0.1249477912140172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.08236638748193346</v>
+      </c>
+      <c r="E13">
+        <v>-0.1171471360520609</v>
+      </c>
+      <c r="F13">
+        <v>-0.05209986644616929</v>
+      </c>
+      <c r="G13">
+        <v>0.1070325123523246</v>
+      </c>
+      <c r="H13">
+        <v>0.02519612323802602</v>
+      </c>
+      <c r="I13">
+        <v>0.08847641004005573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.006424525104969214</v>
+        <v>0.003982502883655823</v>
       </c>
       <c r="C14">
-        <v>0.02709045762760117</v>
+        <v>-0.05100572253243844</v>
       </c>
       <c r="D14">
-        <v>0.06051583784680148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02868574555349955</v>
+      </c>
+      <c r="E14">
+        <v>-0.1060259686052604</v>
+      </c>
+      <c r="F14">
+        <v>-0.0239746967476016</v>
+      </c>
+      <c r="G14">
+        <v>0.03985910434036889</v>
+      </c>
+      <c r="H14">
+        <v>0.05384690972484852</v>
+      </c>
+      <c r="I14">
+        <v>0.1365609695662328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001047654815317956</v>
+        <v>-0.004496235764147414</v>
       </c>
       <c r="C15">
-        <v>0.02342477743535997</v>
+        <v>-0.04530243638029594</v>
       </c>
       <c r="D15">
-        <v>0.06978783024726321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03864390521873143</v>
+      </c>
+      <c r="E15">
+        <v>-0.07131609278341167</v>
+      </c>
+      <c r="F15">
+        <v>-0.02173909679500022</v>
+      </c>
+      <c r="G15">
+        <v>-0.006270150491247501</v>
+      </c>
+      <c r="H15">
+        <v>0.006931925849536132</v>
+      </c>
+      <c r="I15">
+        <v>0.04956041914058916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.007649002159729177</v>
+        <v>0.009679853499159251</v>
       </c>
       <c r="C16">
-        <v>0.04446911894038715</v>
+        <v>-0.05822497108811665</v>
       </c>
       <c r="D16">
-        <v>0.04198002310203908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02271613644105862</v>
+      </c>
+      <c r="E16">
+        <v>-0.0392222067064122</v>
+      </c>
+      <c r="F16">
+        <v>-0.0007122644126747712</v>
+      </c>
+      <c r="G16">
+        <v>0.003374805660348798</v>
+      </c>
+      <c r="H16">
+        <v>0.03557898049393081</v>
+      </c>
+      <c r="I16">
+        <v>0.03924158260540696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.008779618996291479</v>
+        <v>0.003392049625896705</v>
       </c>
       <c r="C19">
-        <v>0.01722469529177483</v>
+        <v>-0.01310489417184377</v>
       </c>
       <c r="D19">
-        <v>0.02847508103018433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.001626609110268802</v>
+      </c>
+      <c r="E19">
+        <v>-0.0133380924952194</v>
+      </c>
+      <c r="F19">
+        <v>0.009767470271121383</v>
+      </c>
+      <c r="G19">
+        <v>0.004106150635392732</v>
+      </c>
+      <c r="H19">
+        <v>-0.01938895479552832</v>
+      </c>
+      <c r="I19">
+        <v>0.03268842522666705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.002068160687866373</v>
+        <v>0.001856038572192493</v>
       </c>
       <c r="C20">
-        <v>0.04456191116226568</v>
+        <v>-0.06481511527616189</v>
       </c>
       <c r="D20">
-        <v>0.06138691267213945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03950254780171137</v>
+      </c>
+      <c r="E20">
+        <v>-0.06419539804010863</v>
+      </c>
+      <c r="F20">
+        <v>-0.01053342540318508</v>
+      </c>
+      <c r="G20">
+        <v>-0.01373182692273515</v>
+      </c>
+      <c r="H20">
+        <v>0.05975660470616249</v>
+      </c>
+      <c r="I20">
+        <v>0.06288347112090181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01220311564854605</v>
+        <v>0.006949089605454869</v>
       </c>
       <c r="C21">
-        <v>0.06636445036408364</v>
+        <v>-0.07470904115348131</v>
       </c>
       <c r="D21">
-        <v>0.08855194775186748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03694958449644802</v>
+      </c>
+      <c r="E21">
+        <v>-0.08334515605777311</v>
+      </c>
+      <c r="F21">
+        <v>-0.06290668050747517</v>
+      </c>
+      <c r="G21">
+        <v>0.1066855462325935</v>
+      </c>
+      <c r="H21">
+        <v>-0.008843705350761108</v>
+      </c>
+      <c r="I21">
+        <v>0.1890453883261336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.00314596739565734</v>
+        <v>-0.0113211357972342</v>
       </c>
       <c r="C22">
-        <v>0.06959943098447234</v>
+        <v>-0.1021527391273983</v>
       </c>
       <c r="D22">
-        <v>0.1884192825026539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1660687404573384</v>
+      </c>
+      <c r="E22">
+        <v>-0.1572808204139044</v>
+      </c>
+      <c r="F22">
+        <v>-0.2738398843258592</v>
+      </c>
+      <c r="G22">
+        <v>-0.1362999934924218</v>
+      </c>
+      <c r="H22">
+        <v>-0.2430219759623483</v>
+      </c>
+      <c r="I22">
+        <v>-0.4206999089970793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.003208198248734803</v>
+        <v>-0.008088918020920327</v>
       </c>
       <c r="C23">
-        <v>0.0707928884386263</v>
+        <v>-0.1050121534658904</v>
       </c>
       <c r="D23">
-        <v>0.1879671831569072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1685106266309142</v>
+      </c>
+      <c r="E23">
+        <v>-0.1547040946699883</v>
+      </c>
+      <c r="F23">
+        <v>-0.2694065751372234</v>
+      </c>
+      <c r="G23">
+        <v>-0.1292208429996831</v>
+      </c>
+      <c r="H23">
+        <v>-0.2329238673106611</v>
+      </c>
+      <c r="I23">
+        <v>-0.3933822260527074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.01080403395263293</v>
+        <v>0.01137201623667105</v>
       </c>
       <c r="C24">
-        <v>0.06703274612285735</v>
+        <v>-0.07534191169654121</v>
       </c>
       <c r="D24">
-        <v>0.05458732291631169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.01573255224297824</v>
+      </c>
+      <c r="E24">
+        <v>-0.05317297389551757</v>
+      </c>
+      <c r="F24">
+        <v>-0.001573494395291505</v>
+      </c>
+      <c r="G24">
+        <v>-0.001216443801411511</v>
+      </c>
+      <c r="H24">
+        <v>0.02537687071348842</v>
+      </c>
+      <c r="I24">
+        <v>0.0587732947391337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01363126620928382</v>
+        <v>0.01579123475302256</v>
       </c>
       <c r="C25">
-        <v>0.05691670475873353</v>
+        <v>-0.06808030161683137</v>
       </c>
       <c r="D25">
-        <v>0.04322655227048457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0182951165969781</v>
+      </c>
+      <c r="E25">
+        <v>-0.03979827766131159</v>
+      </c>
+      <c r="F25">
+        <v>-0.005956475562286421</v>
+      </c>
+      <c r="G25">
+        <v>-0.005814489010039644</v>
+      </c>
+      <c r="H25">
+        <v>0.03367927425222845</v>
+      </c>
+      <c r="I25">
+        <v>0.04006146090911304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.007420472778739728</v>
+        <v>0.01714509586001172</v>
       </c>
       <c r="C26">
-        <v>0.03179592417359877</v>
+        <v>-0.05012000399500975</v>
       </c>
       <c r="D26">
-        <v>0.05272109784751355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.001924017743253043</v>
+      </c>
+      <c r="E26">
+        <v>-0.08309498111327375</v>
+      </c>
+      <c r="F26">
+        <v>-0.03545706819523228</v>
+      </c>
+      <c r="G26">
+        <v>0.007695644349605135</v>
+      </c>
+      <c r="H26">
+        <v>0.02714227638749848</v>
+      </c>
+      <c r="I26">
+        <v>0.1264940081955223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.3038968332909437</v>
+        <v>0.3143493832760778</v>
       </c>
       <c r="C28">
-        <v>-0.1292519669493825</v>
+        <v>0.09660486026146702</v>
       </c>
       <c r="D28">
-        <v>-0.03205086458542993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01334998444542302</v>
+      </c>
+      <c r="E28">
+        <v>0.03424356107293109</v>
+      </c>
+      <c r="F28">
+        <v>-0.05690121578312177</v>
+      </c>
+      <c r="G28">
+        <v>-0.04528071456125896</v>
+      </c>
+      <c r="H28">
+        <v>-0.03997911293577663</v>
+      </c>
+      <c r="I28">
+        <v>0.07690823164837352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.002633252949054785</v>
+        <v>0.003255664190475892</v>
       </c>
       <c r="C29">
-        <v>0.03640694175592837</v>
+        <v>-0.06076472261547335</v>
       </c>
       <c r="D29">
-        <v>0.0712351057388067</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0412344115667754</v>
+      </c>
+      <c r="E29">
+        <v>-0.1134829793478557</v>
+      </c>
+      <c r="F29">
+        <v>-0.02690190702601276</v>
+      </c>
+      <c r="G29">
+        <v>0.05919135880048641</v>
+      </c>
+      <c r="H29">
+        <v>0.07879750558744217</v>
+      </c>
+      <c r="I29">
+        <v>0.1710777561540797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02230422682713196</v>
+        <v>0.01866173627176068</v>
       </c>
       <c r="C30">
-        <v>0.09599550144882621</v>
+        <v>-0.1184809463820915</v>
       </c>
       <c r="D30">
-        <v>0.1302279780870413</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06265231865327681</v>
+      </c>
+      <c r="E30">
+        <v>-0.1146180795665116</v>
+      </c>
+      <c r="F30">
+        <v>-0.0617839474758289</v>
+      </c>
+      <c r="G30">
+        <v>-0.01783239021109269</v>
+      </c>
+      <c r="H30">
+        <v>0.009009848259582799</v>
+      </c>
+      <c r="I30">
+        <v>0.02454667425819831</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01383079448809368</v>
+        <v>0.009175223888616635</v>
       </c>
       <c r="C31">
-        <v>0.09588525794067605</v>
+        <v>-0.1014466099823569</v>
       </c>
       <c r="D31">
-        <v>0.03465548643759224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0006707971250863443</v>
+      </c>
+      <c r="E31">
+        <v>-0.02763152476496753</v>
+      </c>
+      <c r="F31">
+        <v>-0.0006694285158079763</v>
+      </c>
+      <c r="G31">
+        <v>-0.0005891693267982028</v>
+      </c>
+      <c r="H31">
+        <v>-0.02356701487339704</v>
+      </c>
+      <c r="I31">
+        <v>0.05937740176823635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01861487089575515</v>
+        <v>0.01487759082333174</v>
       </c>
       <c r="C32">
-        <v>0.05321513542730356</v>
+        <v>-0.06156176849363097</v>
       </c>
       <c r="D32">
-        <v>0.09381450557366718</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03814011939023888</v>
+      </c>
+      <c r="E32">
+        <v>-0.06384207133682958</v>
+      </c>
+      <c r="F32">
+        <v>-0.1114590229160557</v>
+      </c>
+      <c r="G32">
+        <v>0.04296987063821884</v>
+      </c>
+      <c r="H32">
+        <v>0.006351721385082264</v>
+      </c>
+      <c r="I32">
+        <v>0.1083727348672207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.005820966172544677</v>
+        <v>0.009003599923575516</v>
       </c>
       <c r="C33">
-        <v>0.06088545132250112</v>
+        <v>-0.08612312204048471</v>
       </c>
       <c r="D33">
-        <v>0.08244432945029674</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0499256282858186</v>
+      </c>
+      <c r="E33">
+        <v>-0.08097100011172655</v>
+      </c>
+      <c r="F33">
+        <v>-0.02292366922128506</v>
+      </c>
+      <c r="G33">
+        <v>0.00219803247219361</v>
+      </c>
+      <c r="H33">
+        <v>0.03521048330456922</v>
+      </c>
+      <c r="I33">
+        <v>0.06110469298539642</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01126706660233655</v>
+        <v>0.01242631613798591</v>
       </c>
       <c r="C34">
-        <v>0.06363512599849033</v>
+        <v>-0.06412149035501408</v>
       </c>
       <c r="D34">
-        <v>0.06553268770691616</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01593228645279414</v>
+      </c>
+      <c r="E34">
+        <v>-0.04531586788695601</v>
+      </c>
+      <c r="F34">
+        <v>0.02698730961068047</v>
+      </c>
+      <c r="G34">
+        <v>0.005644862035812949</v>
+      </c>
+      <c r="H34">
+        <v>0.009238725021936331</v>
+      </c>
+      <c r="I34">
+        <v>0.02952841595460089</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.001551712510669035</v>
+        <v>0.00462047245481603</v>
       </c>
       <c r="C35">
-        <v>0.00178328622171218</v>
+        <v>-0.02276739530614704</v>
       </c>
       <c r="D35">
-        <v>0.007161758747509563</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01386214125671808</v>
+      </c>
+      <c r="E35">
+        <v>-0.04127737068522448</v>
+      </c>
+      <c r="F35">
+        <v>-0.02247710403596514</v>
+      </c>
+      <c r="G35">
+        <v>0.01655880603045999</v>
+      </c>
+      <c r="H35">
+        <v>0.04858908507106517</v>
+      </c>
+      <c r="I35">
+        <v>0.09890777799323537</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.004421976611393394</v>
+        <v>0.009501363851549998</v>
       </c>
       <c r="C36">
-        <v>0.02948966483281647</v>
+        <v>-0.04078666616254948</v>
       </c>
       <c r="D36">
-        <v>0.04171270268160114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01071849501530426</v>
+      </c>
+      <c r="E36">
+        <v>-0.06734805248030411</v>
+      </c>
+      <c r="F36">
+        <v>-0.0402357187281654</v>
+      </c>
+      <c r="G36">
+        <v>0.007024433488134753</v>
+      </c>
+      <c r="H36">
+        <v>0.02841513410926315</v>
+      </c>
+      <c r="I36">
+        <v>0.07304805452037982</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005991196513703236</v>
+        <v>0.007608933059532374</v>
       </c>
       <c r="C38">
-        <v>0.01670083061387236</v>
+        <v>-0.04269780484385612</v>
       </c>
       <c r="D38">
-        <v>0.06471627323412388</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.03958089106071502</v>
+      </c>
+      <c r="E38">
+        <v>-0.07710786780814365</v>
+      </c>
+      <c r="F38">
+        <v>-0.01541891404645401</v>
+      </c>
+      <c r="G38">
+        <v>-0.0490597910504947</v>
+      </c>
+      <c r="H38">
+        <v>-0.0002090509357718768</v>
+      </c>
+      <c r="I38">
+        <v>0.08003138640815644</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01206990556712464</v>
+        <v>0.009220323090820539</v>
       </c>
       <c r="C39">
-        <v>0.0802219215289789</v>
+        <v>-0.1055940202766873</v>
       </c>
       <c r="D39">
-        <v>0.1058670154100537</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.03525463015296931</v>
+      </c>
+      <c r="E39">
+        <v>-0.0962321563287602</v>
+      </c>
+      <c r="F39">
+        <v>0.0004601132341183167</v>
+      </c>
+      <c r="G39">
+        <v>0.01331283175366584</v>
+      </c>
+      <c r="H39">
+        <v>0.03804162072237285</v>
+      </c>
+      <c r="I39">
+        <v>0.05225234410885271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.004130399417584515</v>
+        <v>0.008571772873424231</v>
       </c>
       <c r="C40">
-        <v>0.0271533194996653</v>
+        <v>-0.0509998700351141</v>
       </c>
       <c r="D40">
-        <v>0.1011251758968432</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.06325116077710891</v>
+      </c>
+      <c r="E40">
+        <v>-0.1179625535491799</v>
+      </c>
+      <c r="F40">
+        <v>0.006964602458143282</v>
+      </c>
+      <c r="G40">
+        <v>0.02159017446869592</v>
+      </c>
+      <c r="H40">
+        <v>0.03109648909221718</v>
+      </c>
+      <c r="I40">
+        <v>0.009238630781456161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.007436363294322177</v>
+        <v>0.01690659750557048</v>
       </c>
       <c r="C41">
-        <v>0.02188919484367316</v>
+        <v>-0.0405245556025732</v>
       </c>
       <c r="D41">
-        <v>0.01754437492324932</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01539432569398421</v>
+      </c>
+      <c r="E41">
+        <v>-0.01948058140303742</v>
+      </c>
+      <c r="F41">
+        <v>0.009477255156977751</v>
+      </c>
+      <c r="G41">
+        <v>-0.007125722677216107</v>
+      </c>
+      <c r="H41">
+        <v>0.01060791814173419</v>
+      </c>
+      <c r="I41">
+        <v>0.04545002063122427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.004103575089987893</v>
+        <v>0.007840997977227499</v>
       </c>
       <c r="C43">
-        <v>0.01792066312145128</v>
+        <v>-0.03362265789777126</v>
       </c>
       <c r="D43">
-        <v>0.03627704274700501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01667932514576603</v>
+      </c>
+      <c r="E43">
+        <v>-0.04386976901678626</v>
+      </c>
+      <c r="F43">
+        <v>-0.001378302763872212</v>
+      </c>
+      <c r="G43">
+        <v>-0.01198980670493259</v>
+      </c>
+      <c r="H43">
+        <v>0.01907239364570099</v>
+      </c>
+      <c r="I43">
+        <v>0.05388598102500976</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0151071759069024</v>
+        <v>0.006605151537813981</v>
       </c>
       <c r="C44">
-        <v>0.0567341600422254</v>
+        <v>-0.07425514327780096</v>
       </c>
       <c r="D44">
-        <v>0.08107244215513482</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03390793167468679</v>
+      </c>
+      <c r="E44">
+        <v>-0.09988083801612785</v>
+      </c>
+      <c r="F44">
+        <v>-0.04593504952566541</v>
+      </c>
+      <c r="G44">
+        <v>-0.009255960704288404</v>
+      </c>
+      <c r="H44">
+        <v>-0.005468116777693242</v>
+      </c>
+      <c r="I44">
+        <v>0.02610503192789049</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.001242989025896733</v>
+        <v>-0.001951615985054617</v>
       </c>
       <c r="C46">
-        <v>0.04414096738122689</v>
+        <v>-0.05439560631724087</v>
       </c>
       <c r="D46">
-        <v>0.07165603719246136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02056416425352363</v>
+      </c>
+      <c r="E46">
+        <v>-0.08728914196088958</v>
+      </c>
+      <c r="F46">
+        <v>-0.02004274235665129</v>
+      </c>
+      <c r="G46">
+        <v>0.013004652628756</v>
+      </c>
+      <c r="H46">
+        <v>0.04932836989150812</v>
+      </c>
+      <c r="I46">
+        <v>0.1113007788281229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.04474259628771971</v>
+        <v>0.0278559034169923</v>
       </c>
       <c r="C47">
-        <v>0.1224807192269139</v>
+        <v>-0.119276374052617</v>
       </c>
       <c r="D47">
-        <v>0.03843300161417608</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008380522724273531</v>
+      </c>
+      <c r="E47">
+        <v>-0.01577611510484516</v>
+      </c>
+      <c r="F47">
+        <v>0.005824901743279537</v>
+      </c>
+      <c r="G47">
+        <v>-0.01100794533491655</v>
+      </c>
+      <c r="H47">
+        <v>-0.007499737862089391</v>
+      </c>
+      <c r="I47">
+        <v>0.0882308417805409</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.006287670885832633</v>
+        <v>0.01287869788609309</v>
       </c>
       <c r="C48">
-        <v>0.03488157514948673</v>
+        <v>-0.0480997260786061</v>
       </c>
       <c r="D48">
-        <v>0.0439313606300576</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.001597976603253312</v>
+      </c>
+      <c r="E48">
+        <v>-0.07744492731554324</v>
+      </c>
+      <c r="F48">
+        <v>-0.04926601314796896</v>
+      </c>
+      <c r="G48">
+        <v>0.0004327502087313371</v>
+      </c>
+      <c r="H48">
+        <v>0.03267068818468166</v>
+      </c>
+      <c r="I48">
+        <v>0.1182826217720793</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002775102966443228</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.005876508880637326</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.001815822693695248</v>
+      </c>
+      <c r="E49">
+        <v>-0.003380929572359062</v>
+      </c>
+      <c r="F49">
+        <v>0.01305542435722797</v>
+      </c>
+      <c r="G49">
+        <v>0.008064677663899388</v>
+      </c>
+      <c r="H49">
+        <v>0.01465173855570475</v>
+      </c>
+      <c r="I49">
+        <v>-0.008940803985242145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.01237006371619344</v>
+        <v>0.009470119743405158</v>
       </c>
       <c r="C50">
-        <v>0.06424163310556699</v>
+        <v>-0.07817583645401636</v>
       </c>
       <c r="D50">
-        <v>0.04603888699076771</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01716951635012343</v>
+      </c>
+      <c r="E50">
+        <v>-0.03574112069966096</v>
+      </c>
+      <c r="F50">
+        <v>-0.01032491543253137</v>
+      </c>
+      <c r="G50">
+        <v>-0.009753006891420272</v>
+      </c>
+      <c r="H50">
+        <v>-0.01576784829205646</v>
+      </c>
+      <c r="I50">
+        <v>0.06145413140407773</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.00373732778319983</v>
+        <v>-0.006142323429181703</v>
       </c>
       <c r="C51">
-        <v>0.016410529841451</v>
+        <v>-0.02763244797741662</v>
       </c>
       <c r="D51">
-        <v>0.06042421508616434</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01466680490275491</v>
+      </c>
+      <c r="E51">
+        <v>-0.05721693448506326</v>
+      </c>
+      <c r="F51">
+        <v>-0.05117670513164972</v>
+      </c>
+      <c r="G51">
+        <v>0.01711768408140027</v>
+      </c>
+      <c r="H51">
+        <v>-0.001318657525288289</v>
+      </c>
+      <c r="I51">
+        <v>0.09758165438492773</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.08299111450008718</v>
+        <v>0.06054567794050995</v>
       </c>
       <c r="C53">
-        <v>0.1553089148257292</v>
+        <v>-0.1632921680921052</v>
       </c>
       <c r="D53">
-        <v>-0.00497714800788031</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04293193789682032</v>
+      </c>
+      <c r="E53">
+        <v>0.0441013408623119</v>
+      </c>
+      <c r="F53">
+        <v>0.02274178607323403</v>
+      </c>
+      <c r="G53">
+        <v>-0.01430362815169729</v>
+      </c>
+      <c r="H53">
+        <v>-0.03143323321703741</v>
+      </c>
+      <c r="I53">
+        <v>0.02462878704440466</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.001243790932131658</v>
+        <v>0.01031122962926326</v>
       </c>
       <c r="C54">
-        <v>0.0390028034115588</v>
+        <v>-0.05479755760720499</v>
       </c>
       <c r="D54">
-        <v>0.08320044621848728</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.04733992770943109</v>
+      </c>
+      <c r="E54">
+        <v>-0.06174888041777201</v>
+      </c>
+      <c r="F54">
+        <v>-0.01364549016751319</v>
+      </c>
+      <c r="G54">
+        <v>-0.004692252331724883</v>
+      </c>
+      <c r="H54">
+        <v>0.008973695587211469</v>
+      </c>
+      <c r="I54">
+        <v>0.09589816594365301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.05826412893644076</v>
+        <v>0.03699477687250868</v>
       </c>
       <c r="C55">
-        <v>0.1155587878481367</v>
+        <v>-0.1181257463831984</v>
       </c>
       <c r="D55">
-        <v>-0.004058825926613341</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05202201349144991</v>
+      </c>
+      <c r="E55">
+        <v>0.01740063960891692</v>
+      </c>
+      <c r="F55">
+        <v>0.03266608206600767</v>
+      </c>
+      <c r="G55">
+        <v>-0.00246026558715545</v>
+      </c>
+      <c r="H55">
+        <v>-0.03993850387361287</v>
+      </c>
+      <c r="I55">
+        <v>0.02638029053102615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.09040405341018615</v>
+        <v>0.0575322634185129</v>
       </c>
       <c r="C56">
-        <v>0.1771683450194566</v>
+        <v>-0.1876964326235107</v>
       </c>
       <c r="D56">
-        <v>0.02414848130059976</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05326449475293868</v>
+      </c>
+      <c r="E56">
+        <v>0.03712479740496023</v>
+      </c>
+      <c r="F56">
+        <v>0.06961899556093061</v>
+      </c>
+      <c r="G56">
+        <v>-0.01888290944548754</v>
+      </c>
+      <c r="H56">
+        <v>-0.118624297557894</v>
+      </c>
+      <c r="I56">
+        <v>0.02177058588132188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.01733194767019016</v>
+        <v>0.01007413151993781</v>
       </c>
       <c r="C58">
-        <v>0.05683191781205495</v>
+        <v>-0.1085502290851187</v>
       </c>
       <c r="D58">
-        <v>0.1754271239143847</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1526863811561234</v>
+      </c>
+      <c r="E58">
+        <v>-0.1453152854080214</v>
+      </c>
+      <c r="F58">
+        <v>-0.2673020923543076</v>
+      </c>
+      <c r="G58">
+        <v>-0.06491228550710612</v>
+      </c>
+      <c r="H58">
+        <v>-0.130097295367083</v>
+      </c>
+      <c r="I58">
+        <v>-0.06511037172601404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.234249174276768</v>
+        <v>0.2673614675516951</v>
       </c>
       <c r="C59">
-        <v>-0.07634363020098019</v>
+        <v>0.04878539895999971</v>
       </c>
       <c r="D59">
-        <v>0.05209460121432527</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02253817814585073</v>
+      </c>
+      <c r="E59">
+        <v>-0.02719373947635815</v>
+      </c>
+      <c r="F59">
+        <v>-0.0263018008118261</v>
+      </c>
+      <c r="G59">
+        <v>0.0181883536133306</v>
+      </c>
+      <c r="H59">
+        <v>-0.003748491704962015</v>
+      </c>
+      <c r="I59">
+        <v>-0.0230451374160049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1472453399608195</v>
+        <v>0.1497546036406253</v>
       </c>
       <c r="C60">
-        <v>0.1256045929249162</v>
+        <v>-0.1544315241514367</v>
       </c>
       <c r="D60">
-        <v>0.09261329931961475</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03770748905281695</v>
+      </c>
+      <c r="E60">
+        <v>-0.07258514245527548</v>
+      </c>
+      <c r="F60">
+        <v>0.2032805874204391</v>
+      </c>
+      <c r="G60">
+        <v>0.1083120212286196</v>
+      </c>
+      <c r="H60">
+        <v>0.2076558408868753</v>
+      </c>
+      <c r="I60">
+        <v>-0.2715668120329036</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.01826793309554217</v>
+        <v>0.01595174996998481</v>
       </c>
       <c r="C61">
-        <v>0.0678510988101698</v>
+        <v>-0.09061822362291311</v>
       </c>
       <c r="D61">
-        <v>0.07540315934361107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.02283978083379227</v>
+      </c>
+      <c r="E61">
+        <v>-0.07618663656389134</v>
+      </c>
+      <c r="F61">
+        <v>0.01442319708759904</v>
+      </c>
+      <c r="G61">
+        <v>0.001147822018738148</v>
+      </c>
+      <c r="H61">
+        <v>0.03026693242280702</v>
+      </c>
+      <c r="I61">
+        <v>0.06406008980097981</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0002799121309164933</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.001090245321594646</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.0002809057585346963</v>
+      </c>
+      <c r="E62">
+        <v>0.0004238758697326323</v>
+      </c>
+      <c r="F62">
+        <v>-0.001749154601351593</v>
+      </c>
+      <c r="G62">
+        <v>-0.0002906998349570456</v>
+      </c>
+      <c r="H62">
+        <v>-0.0008836514381070368</v>
+      </c>
+      <c r="I62">
+        <v>0.002759677840540099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.003856725334220217</v>
+        <v>0.01697231310644974</v>
       </c>
       <c r="C63">
-        <v>0.04588522685319777</v>
+        <v>-0.06326062765062816</v>
       </c>
       <c r="D63">
-        <v>0.05822464774723083</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01126002426564672</v>
+      </c>
+      <c r="E63">
+        <v>-0.07454267051121484</v>
+      </c>
+      <c r="F63">
+        <v>-0.007647079600535233</v>
+      </c>
+      <c r="G63">
+        <v>0.004646108120658327</v>
+      </c>
+      <c r="H63">
+        <v>0.02898206202976967</v>
+      </c>
+      <c r="I63">
+        <v>0.07455858880680102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.03211352923748652</v>
+        <v>0.01691889352632325</v>
       </c>
       <c r="C64">
-        <v>0.110618620505527</v>
+        <v>-0.1073317031078367</v>
       </c>
       <c r="D64">
-        <v>0.01825320953093793</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01181221430800884</v>
+      </c>
+      <c r="E64">
+        <v>-0.02611083295736343</v>
+      </c>
+      <c r="F64">
+        <v>-0.01779958626059339</v>
+      </c>
+      <c r="G64">
+        <v>-0.01762227685638175</v>
+      </c>
+      <c r="H64">
+        <v>0.05523670852981886</v>
+      </c>
+      <c r="I64">
+        <v>-0.02093757688010487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.0182039019029351</v>
+        <v>0.02346406641113491</v>
       </c>
       <c r="C65">
-        <v>0.03918857505624829</v>
+        <v>-0.06308130258440517</v>
       </c>
       <c r="D65">
-        <v>0.08334620219018554</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.06411729189257317</v>
+      </c>
+      <c r="E65">
+        <v>-0.09080694496093107</v>
+      </c>
+      <c r="F65">
+        <v>-0.006127894182155464</v>
+      </c>
+      <c r="G65">
+        <v>-0.004454052629957584</v>
+      </c>
+      <c r="H65">
+        <v>0.09284370043683055</v>
+      </c>
+      <c r="I65">
+        <v>-0.02495556458349217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.01953321654767145</v>
+        <v>0.01117908082454711</v>
       </c>
       <c r="C66">
-        <v>0.09643853595402178</v>
+        <v>-0.1293667007814102</v>
       </c>
       <c r="D66">
-        <v>0.1325417627976064</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.06424243129191494</v>
+      </c>
+      <c r="E66">
+        <v>-0.1026866434427012</v>
+      </c>
+      <c r="F66">
+        <v>-0.01002467445036298</v>
+      </c>
+      <c r="G66">
+        <v>0.003660848129474101</v>
+      </c>
+      <c r="H66">
+        <v>0.007404116459697613</v>
+      </c>
+      <c r="I66">
+        <v>0.04331774067722003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.01743974917588994</v>
+        <v>0.01746226962211246</v>
       </c>
       <c r="C67">
-        <v>0.01934912561163508</v>
+        <v>-0.04155894708543185</v>
       </c>
       <c r="D67">
-        <v>0.03578537350219378</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0136850909630203</v>
+      </c>
+      <c r="E67">
+        <v>-0.06291758124142643</v>
+      </c>
+      <c r="F67">
+        <v>0.02397188425812043</v>
+      </c>
+      <c r="G67">
+        <v>-0.03971641717058135</v>
+      </c>
+      <c r="H67">
+        <v>0.017464360709297</v>
+      </c>
+      <c r="I67">
+        <v>0.06415787795825637</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2332987284664186</v>
+        <v>0.2770102544582346</v>
       </c>
       <c r="C68">
-        <v>-0.08941002480993232</v>
+        <v>0.05902591350316956</v>
       </c>
       <c r="D68">
-        <v>0.02256031114154114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.04272233293261157</v>
+      </c>
+      <c r="E68">
+        <v>-0.01364956004273064</v>
+      </c>
+      <c r="F68">
+        <v>-0.04735966790583587</v>
+      </c>
+      <c r="G68">
+        <v>-0.01460558158543416</v>
+      </c>
+      <c r="H68">
+        <v>-0.03728445438271445</v>
+      </c>
+      <c r="I68">
+        <v>-0.007336924685535158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.03547743541091063</v>
+        <v>0.01410202787179384</v>
       </c>
       <c r="C69">
-        <v>0.1256761776905405</v>
+        <v>-0.1075415020319663</v>
       </c>
       <c r="D69">
-        <v>0.05015283409529137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01848414383593775</v>
+      </c>
+      <c r="E69">
+        <v>-0.02651026883324218</v>
+      </c>
+      <c r="F69">
+        <v>0.01869697130516018</v>
+      </c>
+      <c r="G69">
+        <v>-0.003181552628752365</v>
+      </c>
+      <c r="H69">
+        <v>-0.009883858774249745</v>
+      </c>
+      <c r="I69">
+        <v>0.0533001930144863</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2523125274583665</v>
+        <v>0.2682937604296602</v>
       </c>
       <c r="C71">
-        <v>-0.1154541189177861</v>
+        <v>0.07812664921708774</v>
       </c>
       <c r="D71">
-        <v>0.01797903806915685</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01786251080744636</v>
+      </c>
+      <c r="E71">
+        <v>-0.02053912378452011</v>
+      </c>
+      <c r="F71">
+        <v>-0.02075138781861391</v>
+      </c>
+      <c r="G71">
+        <v>-0.03119258536787861</v>
+      </c>
+      <c r="H71">
+        <v>-0.006032603772105923</v>
+      </c>
+      <c r="I71">
+        <v>0.07879775309077608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.08080762535483574</v>
+        <v>0.06215817118615635</v>
       </c>
       <c r="C72">
-        <v>0.1149271901682931</v>
+        <v>-0.1340226483733447</v>
       </c>
       <c r="D72">
-        <v>0.08681392519853905</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01666945537188338</v>
+      </c>
+      <c r="E72">
+        <v>-0.04900125361149035</v>
+      </c>
+      <c r="F72">
+        <v>0.02841890160632848</v>
+      </c>
+      <c r="G72">
+        <v>0.01305095110711766</v>
+      </c>
+      <c r="H72">
+        <v>0.0307059902754848</v>
+      </c>
+      <c r="I72">
+        <v>-0.03027600409786528</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1249918196230191</v>
+        <v>0.1446698556060633</v>
       </c>
       <c r="C73">
-        <v>0.1044617516832819</v>
+        <v>-0.1615910940762603</v>
       </c>
       <c r="D73">
-        <v>0.1295310693868327</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.04722529671438427</v>
+      </c>
+      <c r="E73">
+        <v>-0.1647287963117935</v>
+      </c>
+      <c r="F73">
+        <v>0.2935722697114625</v>
+      </c>
+      <c r="G73">
+        <v>0.1315447901397131</v>
+      </c>
+      <c r="H73">
+        <v>0.3241833068729873</v>
+      </c>
+      <c r="I73">
+        <v>-0.2917152403912432</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.06933472317305008</v>
+        <v>0.04740885433241931</v>
       </c>
       <c r="C74">
-        <v>0.1401787507082496</v>
+        <v>-0.1389125190144746</v>
       </c>
       <c r="D74">
-        <v>-0.04579637307654615</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.06360668699668891</v>
+      </c>
+      <c r="E74">
+        <v>0.04069048668930867</v>
+      </c>
+      <c r="F74">
+        <v>0.01735660223958048</v>
+      </c>
+      <c r="G74">
+        <v>-0.01295518838548888</v>
+      </c>
+      <c r="H74">
+        <v>-0.02184698727856793</v>
+      </c>
+      <c r="I74">
+        <v>0.02952666194483207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1736324739111099</v>
+        <v>0.09695196449238676</v>
       </c>
       <c r="C75">
-        <v>0.2333337533040171</v>
+        <v>-0.2404533531740992</v>
       </c>
       <c r="D75">
-        <v>-0.02080136580984952</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1085860239732134</v>
+      </c>
+      <c r="E75">
+        <v>0.1035012277198831</v>
+      </c>
+      <c r="F75">
+        <v>0.166673139559587</v>
+      </c>
+      <c r="G75">
+        <v>-0.1235022969395694</v>
+      </c>
+      <c r="H75">
+        <v>-0.2082508342802734</v>
+      </c>
+      <c r="I75">
+        <v>0.02753995335856887</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.09165721393300826</v>
+        <v>0.05517991424491624</v>
       </c>
       <c r="C76">
-        <v>0.1656952738382753</v>
+        <v>-0.1735162882729979</v>
       </c>
       <c r="D76">
-        <v>0.01148839671749593</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06328637278326787</v>
+      </c>
+      <c r="E76">
+        <v>0.02579355404286508</v>
+      </c>
+      <c r="F76">
+        <v>0.09318670073747311</v>
+      </c>
+      <c r="G76">
+        <v>-0.01112682251686243</v>
+      </c>
+      <c r="H76">
+        <v>-0.06720427411336208</v>
+      </c>
+      <c r="I76">
+        <v>0.05062599740020574</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.03088876485011043</v>
+        <v>0.02447986100594478</v>
       </c>
       <c r="C77">
-        <v>0.08096218334485494</v>
+        <v>-0.138458474429544</v>
       </c>
       <c r="D77">
-        <v>0.2563698320353253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.7963969885616606</v>
+      </c>
+      <c r="E77">
+        <v>0.5567946756423735</v>
+      </c>
+      <c r="F77">
+        <v>0.08451838048454409</v>
+      </c>
+      <c r="G77">
+        <v>-0.03182746563623219</v>
+      </c>
+      <c r="H77">
+        <v>0.0722523134191618</v>
+      </c>
+      <c r="I77">
+        <v>0.08279776282439355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02748514118048518</v>
+        <v>0.02493992397723798</v>
       </c>
       <c r="C78">
-        <v>0.09426488336423609</v>
+        <v>-0.1056256392930212</v>
       </c>
       <c r="D78">
-        <v>0.1195853088574361</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0113326872368995</v>
+      </c>
+      <c r="E78">
+        <v>-0.09901845358098754</v>
+      </c>
+      <c r="F78">
+        <v>-0.05543432462793778</v>
+      </c>
+      <c r="G78">
+        <v>0.02365669201842723</v>
+      </c>
+      <c r="H78">
+        <v>-0.08839347298097558</v>
+      </c>
+      <c r="I78">
+        <v>0.1058708287054171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.08889644303320331</v>
+        <v>0.05589408464508771</v>
       </c>
       <c r="C79">
-        <v>0.3592853478546367</v>
+        <v>-0.2770871927555774</v>
       </c>
       <c r="D79">
-        <v>-0.6802698059408966</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.3189597720459392</v>
+      </c>
+      <c r="E79">
+        <v>0.436380401530057</v>
+      </c>
+      <c r="F79">
+        <v>-0.5900486828163468</v>
+      </c>
+      <c r="G79">
+        <v>0.06792957204446542</v>
+      </c>
+      <c r="H79">
+        <v>0.4432264228650172</v>
+      </c>
+      <c r="I79">
+        <v>-0.112234835994308</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.002182802177352147</v>
+        <v>0.007834370165448749</v>
       </c>
       <c r="C80">
-        <v>0.05683854595017523</v>
+        <v>-0.05531290416024841</v>
       </c>
       <c r="D80">
-        <v>0.03786237865190015</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.002749413000202388</v>
+      </c>
+      <c r="E80">
+        <v>-0.06826228863621278</v>
+      </c>
+      <c r="F80">
+        <v>0.02361798372336577</v>
+      </c>
+      <c r="G80">
+        <v>0.06843826093780676</v>
+      </c>
+      <c r="H80">
+        <v>0.02012244245275121</v>
+      </c>
+      <c r="I80">
+        <v>-0.03056085019114535</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.07941813255583766</v>
+        <v>0.03498212438845014</v>
       </c>
       <c r="C81">
-        <v>0.1604693982238134</v>
+        <v>-0.1586547175008126</v>
       </c>
       <c r="D81">
-        <v>-0.04448679228021767</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07322079523970874</v>
+      </c>
+      <c r="E81">
+        <v>0.05535346029855086</v>
+      </c>
+      <c r="F81">
+        <v>0.02552760360281349</v>
+      </c>
+      <c r="G81">
+        <v>-0.02570742417188319</v>
+      </c>
+      <c r="H81">
+        <v>-0.07516597845113566</v>
+      </c>
+      <c r="I81">
+        <v>0.06988930554098768</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1350735917461237</v>
+        <v>0.0731238257406284</v>
       </c>
       <c r="C82">
-        <v>0.2430054229446435</v>
+        <v>-0.2190767962637117</v>
       </c>
       <c r="D82">
-        <v>-0.0116155256322275</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1112291077290582</v>
+      </c>
+      <c r="E82">
+        <v>0.06054647026832501</v>
+      </c>
+      <c r="F82">
+        <v>0.1096003434206949</v>
+      </c>
+      <c r="G82">
+        <v>-0.01060488958233847</v>
+      </c>
+      <c r="H82">
+        <v>-0.1352626073967163</v>
+      </c>
+      <c r="I82">
+        <v>0.08841542468148607</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.00266141277754767</v>
+        <v>0.003644997683481847</v>
       </c>
       <c r="C83">
-        <v>0.05207221006585653</v>
+        <v>-0.01918051322997943</v>
       </c>
       <c r="D83">
-        <v>0.03835888852833665</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04123259409660716</v>
+      </c>
+      <c r="E83">
+        <v>0.0630369569444067</v>
+      </c>
+      <c r="F83">
+        <v>-0.07130442958998745</v>
+      </c>
+      <c r="G83">
+        <v>0.8986366313832543</v>
+      </c>
+      <c r="H83">
+        <v>-0.2954458902802276</v>
+      </c>
+      <c r="I83">
+        <v>-0.04548348613791179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.002668420277324032</v>
+        <v>-0.002961121988766505</v>
       </c>
       <c r="C84">
-        <v>0.01127095740242731</v>
+        <v>-0.02754350006477326</v>
       </c>
       <c r="D84">
-        <v>0.02248212033561999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02498869674001516</v>
+      </c>
+      <c r="E84">
+        <v>-0.04696372485745055</v>
+      </c>
+      <c r="F84">
+        <v>-0.05977453693311852</v>
+      </c>
+      <c r="G84">
+        <v>-0.05034113027085762</v>
+      </c>
+      <c r="H84">
+        <v>-0.03553948896619663</v>
+      </c>
+      <c r="I84">
+        <v>0.06223903225263088</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.0850705238015131</v>
+        <v>0.04804645395235538</v>
       </c>
       <c r="C85">
-        <v>0.182930039988373</v>
+        <v>-0.1751277010571387</v>
       </c>
       <c r="D85">
-        <v>-0.08087842222322314</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1201539628239861</v>
+      </c>
+      <c r="E85">
+        <v>0.08181780671142061</v>
+      </c>
+      <c r="F85">
+        <v>0.02846099784352006</v>
+      </c>
+      <c r="G85">
+        <v>-0.01993068494897936</v>
+      </c>
+      <c r="H85">
+        <v>-0.06595228594997589</v>
+      </c>
+      <c r="I85">
+        <v>0.03403115232534502</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02884003420173713</v>
+        <v>0.01730049495719379</v>
       </c>
       <c r="C86">
-        <v>0.0270401984417242</v>
+        <v>-0.05736647547237911</v>
       </c>
       <c r="D86">
-        <v>0.08409663444691028</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0551714681090003</v>
+      </c>
+      <c r="E86">
+        <v>-0.04012380835380353</v>
+      </c>
+      <c r="F86">
+        <v>-0.0755062963190845</v>
+      </c>
+      <c r="G86">
+        <v>-0.04114546694350353</v>
+      </c>
+      <c r="H86">
+        <v>-0.02478862072897415</v>
+      </c>
+      <c r="I86">
+        <v>0.05760910026343838</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02527842613706863</v>
+        <v>0.01548950524136003</v>
       </c>
       <c r="C87">
-        <v>0.06932944705281102</v>
+        <v>-0.08976234516748327</v>
       </c>
       <c r="D87">
-        <v>0.1308224920268176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07937272195068745</v>
+      </c>
+      <c r="E87">
+        <v>-0.08908723433810929</v>
+      </c>
+      <c r="F87">
+        <v>-0.08460848356279778</v>
+      </c>
+      <c r="G87">
+        <v>-0.01850532597542771</v>
+      </c>
+      <c r="H87">
+        <v>-0.04522015640706757</v>
+      </c>
+      <c r="I87">
+        <v>0.03184877660589179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03685690207403201</v>
+        <v>0.03641338166633867</v>
       </c>
       <c r="C88">
-        <v>0.07440434844796373</v>
+        <v>-0.08178477378457737</v>
       </c>
       <c r="D88">
-        <v>0.001456550711924371</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.008341027662818516</v>
+      </c>
+      <c r="E88">
+        <v>-0.01960339049331147</v>
+      </c>
+      <c r="F88">
+        <v>0.0192183418142795</v>
+      </c>
+      <c r="G88">
+        <v>-0.005794891935316585</v>
+      </c>
+      <c r="H88">
+        <v>0.01994206757566799</v>
+      </c>
+      <c r="I88">
+        <v>0.02317516186502473</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.4122789890887179</v>
+        <v>0.4084970300581812</v>
       </c>
       <c r="C89">
-        <v>-0.2199875847706997</v>
+        <v>0.155433630708729</v>
       </c>
       <c r="D89">
-        <v>-0.02383227013486147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02219561303788533</v>
+      </c>
+      <c r="E89">
+        <v>-0.01052635828302766</v>
+      </c>
+      <c r="F89">
+        <v>-0.1124046290342304</v>
+      </c>
+      <c r="G89">
+        <v>0.09479805860779446</v>
+      </c>
+      <c r="H89">
+        <v>-0.08359631366857323</v>
+      </c>
+      <c r="I89">
+        <v>-0.004432355531370585</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.3116735294886054</v>
+        <v>0.3237137306642081</v>
       </c>
       <c r="C90">
-        <v>-0.1573912316328675</v>
+        <v>0.09962514857851619</v>
       </c>
       <c r="D90">
-        <v>0.06168024212082079</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03745013612352165</v>
+      </c>
+      <c r="E90">
+        <v>-0.03889441027605398</v>
+      </c>
+      <c r="F90">
+        <v>-0.01269436971696412</v>
+      </c>
+      <c r="G90">
+        <v>-0.01240557334348093</v>
+      </c>
+      <c r="H90">
+        <v>-0.02400217290728284</v>
+      </c>
+      <c r="I90">
+        <v>-0.004610241291770445</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1032394572712528</v>
+        <v>0.06468653219315978</v>
       </c>
       <c r="C91">
-        <v>0.2152950650469356</v>
+        <v>-0.18827898146955</v>
       </c>
       <c r="D91">
-        <v>-0.07987866280800289</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09211501170994117</v>
+      </c>
+      <c r="E91">
+        <v>0.1086380346289767</v>
+      </c>
+      <c r="F91">
+        <v>0.01473484915723951</v>
+      </c>
+      <c r="G91">
+        <v>0.01500139295788022</v>
+      </c>
+      <c r="H91">
+        <v>-0.04278951211335446</v>
+      </c>
+      <c r="I91">
+        <v>0.02743242098460746</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.3155716346878902</v>
+        <v>0.3427248748318542</v>
       </c>
       <c r="C92">
-        <v>-0.1632530928981038</v>
+        <v>0.124472519406149</v>
       </c>
       <c r="D92">
-        <v>-0.01774225323994439</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02480622720853176</v>
+      </c>
+      <c r="E92">
+        <v>0.01585651486438122</v>
+      </c>
+      <c r="F92">
+        <v>-0.06883604529642121</v>
+      </c>
+      <c r="G92">
+        <v>-0.09749024285880099</v>
+      </c>
+      <c r="H92">
+        <v>0.01670372502145544</v>
+      </c>
+      <c r="I92">
+        <v>0.04207633652416802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.3172971607131421</v>
+        <v>0.3242928290941694</v>
       </c>
       <c r="C93">
-        <v>-0.1593417131937861</v>
+        <v>0.1174702722902002</v>
       </c>
       <c r="D93">
-        <v>-0.04656789135330126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.03000965128979132</v>
+      </c>
+      <c r="E93">
+        <v>0.01781703387969005</v>
+      </c>
+      <c r="F93">
+        <v>-0.0271884276194154</v>
+      </c>
+      <c r="G93">
+        <v>-0.02072621239462695</v>
+      </c>
+      <c r="H93">
+        <v>-0.001343630049920857</v>
+      </c>
+      <c r="I93">
+        <v>0.04941636880054016</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1749008315819844</v>
+        <v>0.1150230014474194</v>
       </c>
       <c r="C94">
-        <v>0.2620631162222151</v>
+        <v>-0.2583900142331361</v>
       </c>
       <c r="D94">
-        <v>-0.07519838293277596</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.1729625884496563</v>
+      </c>
+      <c r="E94">
+        <v>0.2010987480996926</v>
+      </c>
+      <c r="F94">
+        <v>0.2047645744423117</v>
+      </c>
+      <c r="G94">
+        <v>-0.09496468478864448</v>
+      </c>
+      <c r="H94">
+        <v>-0.3999690091440831</v>
+      </c>
+      <c r="I94">
+        <v>-0.1045952464978022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.03860112138211269</v>
+        <v>0.03776310810277218</v>
       </c>
       <c r="C95">
-        <v>0.04715803795639825</v>
+        <v>-0.09049615308335883</v>
       </c>
       <c r="D95">
-        <v>0.0677001347387105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.04573512319228371</v>
+      </c>
+      <c r="E95">
+        <v>-0.07223749064952267</v>
+      </c>
+      <c r="F95">
+        <v>0.09402187136893098</v>
+      </c>
+      <c r="G95">
+        <v>-0.03406394635319564</v>
+      </c>
+      <c r="H95">
+        <v>0.05421992144498446</v>
+      </c>
+      <c r="I95">
+        <v>0.08375614287233346</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002211752418772</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.001885563680710708</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.002875322952121979</v>
+      </c>
+      <c r="E97">
+        <v>-0.007883851992373672</v>
+      </c>
+      <c r="F97">
+        <v>-0.0008107591804856412</v>
+      </c>
+      <c r="G97">
+        <v>-0.006905352568700178</v>
+      </c>
+      <c r="H97">
+        <v>0.003261502752746889</v>
+      </c>
+      <c r="I97">
+        <v>0.00123495207753955</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1096496691314224</v>
+        <v>0.1277987315136277</v>
       </c>
       <c r="C98">
-        <v>0.1012837689201101</v>
+        <v>-0.1442876548875194</v>
       </c>
       <c r="D98">
-        <v>0.1154962655723944</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.02848780628802613</v>
+      </c>
+      <c r="E98">
+        <v>-0.1318555018582124</v>
+      </c>
+      <c r="F98">
+        <v>0.2221530578703055</v>
+      </c>
+      <c r="G98">
+        <v>0.08568754164359425</v>
+      </c>
+      <c r="H98">
+        <v>0.2859009630063608</v>
+      </c>
+      <c r="I98">
+        <v>-0.3195785491364613</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.003689825987904803</v>
+        <v>0.003379419943257932</v>
       </c>
       <c r="C101">
-        <v>0.03566985024560868</v>
+        <v>-0.05964965011712722</v>
       </c>
       <c r="D101">
-        <v>0.07096027442167933</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.04138860301271739</v>
+      </c>
+      <c r="E101">
+        <v>-0.1121754180688887</v>
+      </c>
+      <c r="F101">
+        <v>-0.0267066012944686</v>
+      </c>
+      <c r="G101">
+        <v>0.05861935025690178</v>
+      </c>
+      <c r="H101">
+        <v>0.07758005536666517</v>
+      </c>
+      <c r="I101">
+        <v>0.1700986192634544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.05905391528125086</v>
+        <v>0.02160456487429979</v>
       </c>
       <c r="C102">
-        <v>0.1219747058813374</v>
+        <v>-0.08796138980794443</v>
       </c>
       <c r="D102">
-        <v>0.005056117056034135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04496303827994246</v>
+      </c>
+      <c r="E102">
+        <v>0.04322736040440036</v>
+      </c>
+      <c r="F102">
+        <v>0.04020426945685117</v>
+      </c>
+      <c r="G102">
+        <v>0.007098856896244095</v>
+      </c>
+      <c r="H102">
+        <v>-0.05972201146996132</v>
+      </c>
+      <c r="I102">
+        <v>0.0161596573518667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
